--- a/python/dist/ModelStub/risks.xlsx
+++ b/python/dist/ModelStub/risks.xlsx
@@ -115,7 +115,7 @@
     <t>Are recommendations from the linked cheat sheet and referenced ASVS chapter applied?</t>
   </si>
   <si>
-    <t>missing-authentication@3f85069d-3a1a-4add-93f3-eefa5dfcc2b5&gt;some-traffic@3f85069d-3a1a-4add-93f3-eefa5dfcc2b5@8cc02fef-e52e-47c4-abea-566a3038bfdf</t>
+    <t>missing-authentication@some-technical-asset&gt;some-traffic@some-technical-asset@some-other-technical-asset</t>
   </si>
   <si>
     <t>Unchecked</t>
@@ -151,7 +151,7 @@
     <t>Try to apply all hardening best practices (like CIS benchmarks, OWASP recommendations, vendor recommendations, DevSec Hardening Framework, DBSAT for Oracle databases, and others).</t>
   </si>
   <si>
-    <t>missing-hardening@3f85069d-3a1a-4add-93f3-eefa5dfcc2b5</t>
+    <t>missing-hardening@some-technical-asset</t>
   </si>
   <si>
     <t>Unlikely</t>
@@ -178,7 +178,7 @@
     <t>Is a Vault (Secret Storage) in place?</t>
   </si>
   <si>
-    <t>missing-vault@3f85069d-3a1a-4add-93f3-eefa5dfcc2b5</t>
+    <t>missing-vault@some-technical-asset</t>
   </si>
   <si>
     <t>Development</t>
@@ -199,7 +199,7 @@
     <t>Try to avoid constructing the outgoing target URL with caller controllable values. Alternatively use a mapping (whitelist) when accessing outgoing URLs instead of creating them including caller controllable values. When a third-party product is used instead of custom developed software, check if the product applies the proper mitigation and ensure a reasonable patch-level.</t>
   </si>
   <si>
-    <t>server-side-request-forgery@3f85069d-3a1a-4add-93f3-eefa5dfcc2b5@8cc02fef-e52e-47c4-abea-566a3038bfdf@3f85069d-3a1a-4add-93f3-eefa5dfcc2b5&gt;some-traffic</t>
+    <t>server-side-request-forgery@some-technical-asset@some-other-technical-asset@some-technical-asset&gt;some-traffic</t>
   </si>
   <si>
     <t>CWE-311</t>
@@ -217,13 +217,13 @@
     <t>Apply encryption to the technical asset.</t>
   </si>
   <si>
-    <t>unencrypted-asset@8cc02fef-e52e-47c4-abea-566a3038bfdf</t>
+    <t>unencrypted-asset@some-other-technical-asset</t>
   </si>
   <si>
     <t>Unencrypted Technical Asset named Some Technical Asset</t>
   </si>
   <si>
-    <t>unencrypted-asset@3f85069d-3a1a-4add-93f3-eefa5dfcc2b5</t>
+    <t>unencrypted-asset@some-technical-asset</t>
   </si>
   <si>
     <t>CWE-1008</t>
@@ -244,7 +244,7 @@
     <t>Is a Web Application Firewall (WAF) in place?</t>
   </si>
   <si>
-    <t>missing-waf@8cc02fef-e52e-47c4-abea-566a3038bfdf</t>
+    <t>missing-waf@some-other-technical-asset</t>
   </si>
   <si>
     <t>Mixed Targets on Shared Runtime</t>
@@ -259,7 +259,7 @@
     <t>Use separate runtime environments for running different target components or apply similar separation styles to prevent load- or breach-related problems originating from one more attacker-facing asset impacts also the other more critical rated backend/datastore assets.</t>
   </si>
   <si>
-    <t>mixed-targets-on-shared-runtime@082c4fd2-e180-49a3-b633-e23bdbe1e70b</t>
+    <t>mixed-targets-on-shared-runtime@some-shared-runtime</t>
   </si>
 </sst>
 </file>
